--- a/Informacion Sobre el Negocio.xlsx
+++ b/Informacion Sobre el Negocio.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>Tipo anuncio</t>
-  </si>
-  <si>
-    <t>Fichas Negocio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Fichas Independiente</t>
   </si>
@@ -41,9 +35,6 @@
     <t>Banner Neogico</t>
   </si>
   <si>
-    <t>Fichas Independiente Tops</t>
-  </si>
-  <si>
     <t>Niveles de Categorias</t>
   </si>
   <si>
@@ -56,12 +47,6 @@
     <t>Categorias 3</t>
   </si>
   <si>
-    <t>Categorias 4</t>
-  </si>
-  <si>
-    <t>Categorias 5</t>
-  </si>
-  <si>
     <t>Precio. Normal</t>
   </si>
   <si>
@@ -84,13 +69,97 @@
   </si>
   <si>
     <t>Total Recaudado por mes</t>
+  </si>
+  <si>
+    <t>Fichas Independiente + Tops</t>
+  </si>
+  <si>
+    <t>Ganancia por Suscripciones</t>
+  </si>
+  <si>
+    <t>Entre posiciones 1 a 15</t>
+  </si>
+  <si>
+    <t>POSICIÓN DEL ANUNCIO</t>
+  </si>
+  <si>
+    <t>Categorias de Anuncios</t>
+  </si>
+  <si>
+    <t>Entre posición 16 a 40</t>
+  </si>
+  <si>
+    <t>Entre posición 41 a 150</t>
+  </si>
+  <si>
+    <t>Precios para Lima</t>
+  </si>
+  <si>
+    <t>Total persona x mes</t>
+  </si>
+  <si>
+    <t>Precio por Persona</t>
+  </si>
+  <si>
+    <t>Total recaudado al mes</t>
+  </si>
+  <si>
+    <t>Tipos de Anuncios</t>
+  </si>
+  <si>
+    <t>X Banner o FN por Mes</t>
+  </si>
+  <si>
+    <t>precio x banner o FN</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fichas Negocios  FN</t>
+  </si>
+  <si>
+    <t>probabilidad de ganancias para Fichas Independientes</t>
+  </si>
+  <si>
+    <t>Ganancias por Mes con fichas Independientes</t>
+  </si>
+  <si>
+    <t>Ganancias por Mes con baner y FN</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Banner Neogico (Agencia o negocias que se dedican a venta de accesorios)</t>
+  </si>
+  <si>
+    <t>Posicionarnos como una de las mejores guias de referencia de servicios zzzz</t>
+  </si>
+  <si>
+    <t>Como hacer conocido la paginas y que medios utilizar</t>
+  </si>
+  <si>
+    <t>Posiocionar la paginas en los navegadores</t>
+  </si>
+  <si>
+    <t>anunciarnos en los periodios en la seccion de ss</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Dejar nuestros enlaces en la paginas de videos zzzzzz</t>
+  </si>
+  <si>
+    <t>repartir volantes o trajetas en lugares transitables(contratar personal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +175,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +210,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,11 +246,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,13 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,6 +306,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,269 +612,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G17"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7">
+        <f>E4</f>
+        <v>250</v>
+      </c>
+      <c r="H4" s="7">
+        <f>E4+F4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>180</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G6" si="0">E5</f>
+        <v>180</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H6" si="1">E5+F5</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>200</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4">
+        <v>140</v>
+      </c>
+      <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="F4" s="11">
-        <f>D4</f>
-        <v>200</v>
-      </c>
-      <c r="G4" s="11">
-        <f>D4+E4</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>180</v>
-      </c>
-      <c r="E5" s="5">
-        <v>50</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" ref="F5:F8" si="0">D5</f>
-        <v>180</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" ref="G5:G8" si="1">D5+E5</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>160</v>
-      </c>
-      <c r="E6" s="5">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>140</v>
-      </c>
-      <c r="E7" s="5">
-        <v>50</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10*G4</f>
+        <v>2500</v>
+      </c>
+      <c r="F10" s="4">
+        <f>D10*H4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11*G5</f>
+        <v>2160</v>
+      </c>
+      <c r="F11" s="4">
+        <f>D11*H5</f>
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <f>D12*G6</f>
+        <v>2800</v>
+      </c>
+      <c r="F12" s="4">
+        <f>D12*H6</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D10:D12)</f>
+        <v>42</v>
+      </c>
+      <c r="E13" s="18">
+        <f>SUM(E10:E12)</f>
+        <v>7460</v>
+      </c>
+      <c r="F13" s="18">
+        <f>SUM(F10:F12)</f>
+        <v>9560</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>180</v>
+      </c>
+      <c r="F17" s="18">
+        <f>E17*D17</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>140</v>
+      </c>
+      <c r="F18" s="18">
+        <f>E18*D18</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
-        <v>50</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
-        <f>D11*F4</f>
-        <v>1000</v>
-      </c>
-      <c r="F11" s="5">
-        <f>D11*G4</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <f>D12*F5</f>
-        <v>900</v>
-      </c>
-      <c r="F12" s="5">
-        <f>D12*G5</f>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <f>D13*F6</f>
-        <v>800</v>
-      </c>
-      <c r="F13" s="5">
-        <f>D13*G6</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <f>D14*F7</f>
-        <v>700</v>
-      </c>
-      <c r="F14" s="5">
-        <f>D14*G7</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <f>D15*F8</f>
-        <v>500</v>
-      </c>
-      <c r="F15" s="5">
-        <f>D15*G8</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8">
-        <f>SUM(E11:E15)</f>
-        <v>3900</v>
-      </c>
-      <c r="F16" s="8">
-        <f>SUM(F11:F15)</f>
-        <v>5150</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="12">
-        <f>SUM(D11:D15)</f>
-        <v>25</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="E22" s="4">
+        <f>C22*D22</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
